--- a/Calibration/sensores.xlsx
+++ b/Calibration/sensores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamr1\Documents\Maestria\Captoglove\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamr1\Documents\Maestria\Tesis\Captoglove\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -467,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -481,7 +481,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
     <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
